--- a/Test Prosedürleri/LoRa_P2P_Test_Plan.xlsx
+++ b/Test Prosedürleri/LoRa_P2P_Test_Plan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emin\Documents\LORA Wan uygulaması\Test Prosedürleri\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emin\Documents\Communucation_with_LoRa\Test Prosedürleri\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF004304-758D-49B9-BF0D-230BD63AD445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C292E86A-3861-4C4D-9823-03F57FAFDF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t xml:space="preserve">LoRa P2P TEST PLAN </t>
   </si>
@@ -438,7 +438,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -496,7 +496,7 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -510,7 +510,7 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -524,7 +524,7 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -538,7 +538,7 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
